--- a/Isoform_table.xlsx
+++ b/Isoform_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F39512-2429-5646-A114-9156D23E9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCAB5C6-FFAC-994E-9033-BD5D240C79BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="500" windowWidth="29400" windowHeight="22420" xr2:uid="{7C11F460-6539-964E-B7FB-29F852CA4BBE}"/>
+    <workbookView xWindow="21460" yWindow="500" windowWidth="29400" windowHeight="22420" xr2:uid="{7C11F460-6539-964E-B7FB-29F852CA4BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>FLY_SYMBOL</t>
   </si>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>selected_fly_protein (from gene spreadsheet)</t>
+  </si>
+  <si>
+    <t>PPP2R5D</t>
+  </si>
+  <si>
+    <t>ENST00000485511</t>
+  </si>
+  <si>
+    <t>NM_006245</t>
+  </si>
+  <si>
+    <t>CCDS4878</t>
+  </si>
+  <si>
+    <t>NP_006236</t>
+  </si>
+  <si>
+    <t>wrd</t>
+  </si>
+  <si>
+    <t>FBgn0042693</t>
+  </si>
+  <si>
+    <t>many isoforms</t>
   </si>
 </sst>
 </file>
@@ -405,18 +429,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -734,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09680782-F86D-2045-B6BE-D489B8134532}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +793,7 @@
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -785,7 +808,7 @@
       <c r="J1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -814,13 +837,13 @@
       <c r="H2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -846,13 +869,13 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -869,7 +892,7 @@
       <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -884,10 +907,10 @@
       <c r="H4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -904,10 +927,10 @@
       <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -919,10 +942,10 @@
       <c r="H5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -939,7 +962,7 @@
       <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -954,13 +977,13 @@
       <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -989,10 +1012,10 @@
       <c r="H7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1021,16 +1044,16 @@
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1059,15 +1082,43 @@
       <c r="H9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Isoform_table.xlsx
+++ b/Isoform_table.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCAB5C6-FFAC-994E-9033-BD5D240C79BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2C7BF-D769-E24C-AE63-20D2003D47CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="500" windowWidth="29400" windowHeight="22420" xr2:uid="{7C11F460-6539-964E-B7FB-29F852CA4BBE}"/>
+    <workbookView xWindow="7860" yWindow="1200" windowWidth="35640" windowHeight="22420" xr2:uid="{7C11F460-6539-964E-B7FB-29F852CA4BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="169">
   <si>
     <t>FLY_SYMBOL</t>
   </si>
@@ -209,9 +201,6 @@
     <t>ENST00000288602</t>
   </si>
   <si>
-    <t>Human ENST ID (GRCh37)</t>
-  </si>
-  <si>
     <t>NP_004324</t>
   </si>
   <si>
@@ -299,9 +288,6 @@
     <t>Fly Base protein ID</t>
   </si>
   <si>
-    <t>selected_fly_protein (from gene spreadsheet)</t>
-  </si>
-  <si>
     <t>PPP2R5D</t>
   </si>
   <si>
@@ -323,14 +309,236 @@
     <t>FBgn0042693</t>
   </si>
   <si>
-    <t>many isoforms</t>
+    <t>Human ENST ID GRCh37</t>
+  </si>
+  <si>
+    <t>Human ENST ID GRCh378 (if different)</t>
+  </si>
+  <si>
+    <t>Protein length</t>
+  </si>
+  <si>
+    <t>463aa</t>
+  </si>
+  <si>
+    <t>594aa</t>
+  </si>
+  <si>
+    <t>498aa</t>
+  </si>
+  <si>
+    <t>486aa</t>
+  </si>
+  <si>
+    <t>593aa</t>
+  </si>
+  <si>
+    <t>781aa</t>
+  </si>
+  <si>
+    <t>766aa</t>
+  </si>
+  <si>
+    <t>ENST00000646891</t>
+  </si>
+  <si>
+    <t>ENST00000644876</t>
+  </si>
+  <si>
+    <t>662aa</t>
+  </si>
+  <si>
+    <t>602aa</t>
+  </si>
+  <si>
+    <t>TCF4</t>
+  </si>
+  <si>
+    <t>ENST00000398339</t>
+  </si>
+  <si>
+    <t>773aa</t>
+  </si>
+  <si>
+    <t>NM_001243226</t>
+  </si>
+  <si>
+    <t>NP_001230155</t>
+  </si>
+  <si>
+    <t>DNMT3A</t>
+  </si>
+  <si>
+    <t>ENST00000321117</t>
+  </si>
+  <si>
+    <t>912aa</t>
+  </si>
+  <si>
+    <t>NM_022552</t>
+  </si>
+  <si>
+    <t>NP_072046</t>
+  </si>
+  <si>
+    <t>CCDS33157</t>
+  </si>
+  <si>
+    <t>FBgn0016754</t>
+  </si>
+  <si>
+    <t>sba</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>FBgn0267821</t>
+  </si>
+  <si>
+    <t>NP_001262888</t>
+  </si>
+  <si>
+    <t>NM_001275959</t>
+  </si>
+  <si>
+    <t>FBpp0303406</t>
+  </si>
+  <si>
+    <t>NP_001356956</t>
+  </si>
+  <si>
+    <t>NM_001370036</t>
+  </si>
+  <si>
+    <t>FBpp0423185</t>
+  </si>
+  <si>
+    <t>NP_732295</t>
+  </si>
+  <si>
+    <t>NM_169789</t>
+  </si>
+  <si>
+    <t>FBpp0082978</t>
+  </si>
+  <si>
+    <t>selected_fly_protein (from the old gene spreadsheet)</t>
+  </si>
+  <si>
+    <t>NAA10</t>
+  </si>
+  <si>
+    <t>NAA15</t>
+  </si>
+  <si>
+    <t>ENST00000464845</t>
+  </si>
+  <si>
+    <t>235aa</t>
+  </si>
+  <si>
+    <t>CCDS14737</t>
+  </si>
+  <si>
+    <t>NM_003491</t>
+  </si>
+  <si>
+    <t>NP_003482</t>
+  </si>
+  <si>
+    <t>ENST00000296543</t>
+  </si>
+  <si>
+    <t>866aa</t>
+  </si>
+  <si>
+    <t>NM_057175</t>
+  </si>
+  <si>
+    <t>NP_476516</t>
+  </si>
+  <si>
+    <t>CCDS43270</t>
+  </si>
+  <si>
+    <t>ALDH5A1</t>
+  </si>
+  <si>
+    <t>NM_001080</t>
+  </si>
+  <si>
+    <t>ENST00000357578</t>
+  </si>
+  <si>
+    <t>535aa</t>
+  </si>
+  <si>
+    <t>CCDS4555</t>
+  </si>
+  <si>
+    <t>NP_001071</t>
+  </si>
+  <si>
+    <t>vnc</t>
+  </si>
+  <si>
+    <t>Naa15-16</t>
+  </si>
+  <si>
+    <t>FBgn0031020</t>
+  </si>
+  <si>
+    <t>NM_133156</t>
+  </si>
+  <si>
+    <t>NP_573384</t>
+  </si>
+  <si>
+    <t>FBpp0074480</t>
+  </si>
+  <si>
+    <t>FBgn0263251</t>
+  </si>
+  <si>
+    <t>NM_140121</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>NP_648378</t>
+  </si>
+  <si>
+    <t>FBpp0076077</t>
+  </si>
+  <si>
+    <t>FBgn0039349</t>
+  </si>
+  <si>
+    <t>Ssadh</t>
+  </si>
+  <si>
+    <t>there are 5 fly transcripts for this gene, all of them annotated as primary; I chose isoform A</t>
+  </si>
+  <si>
+    <t>NM_143151</t>
+  </si>
+  <si>
+    <t>NP_651408</t>
+  </si>
+  <si>
+    <t>FBpp0084265</t>
+  </si>
+  <si>
+    <t>there are 2 fly transcripts for this gene, both of them annotated as primary; I chose isoform A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +583,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -402,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -425,17 +640,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -443,6 +669,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,368 +1007,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09680782-F86D-2045-B6BE-D489B8134532}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="83.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>4</v>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>9</v>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
